--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1966.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1966.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>1.105721354484558</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.500784158706665</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>9.131790161132812</v>
       </c>
       <c r="D1">
-        <v>1.111385854136127</v>
+        <v>2.39056658744812</v>
       </c>
       <c r="E1">
-        <v>0.8676455637295934</v>
+        <v>1.283353090286255</v>
       </c>
     </row>
   </sheetData>
